--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>68.80248</v>
-      </c>
-      <c r="C2" t="n">
-        <v>301.87901</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.06769</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59.89229</v>
-      </c>
-      <c r="G2" t="n">
-        <v>203.66448</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.11211</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91.28785000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50.5813</v>
-      </c>
-      <c r="K2" t="n">
-        <v>165.03185</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4045.91934</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.25121</v>
-      </c>
-      <c r="N2" t="n">
-        <v>58.07753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>165.27579</v>
-      </c>
-      <c r="P2" t="n">
-        <v>45.81362</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.40704</v>
-      </c>
-      <c r="R2" t="n">
-        <v>130.64701</v>
-      </c>
-      <c r="S2" t="n">
-        <v>25.15832</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>65.62478</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.0153</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.14229</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.75747</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>123.40207</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1109.72664</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>303.84591</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>101.57143</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.39251</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03947</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>152.42142</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.97092</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>98.87293</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>179.11973</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>140.00369</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.28431</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70.90004</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>72.92140000000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>47.76156</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>43.05971</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.07228</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>80.86597</v>
-      </c>
-      <c r="C3" t="n">
-        <v>289.80945</v>
-      </c>
-      <c r="D3" t="n">
-        <v>90.9512</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>60.43627</v>
-      </c>
-      <c r="G3" t="n">
-        <v>215.20175</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.3093</v>
-      </c>
-      <c r="I3" t="n">
-        <v>97.73142</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52.06215</v>
-      </c>
-      <c r="K3" t="n">
-        <v>169.72914</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4351.93387</v>
-      </c>
-      <c r="M3" t="n">
-        <v>29.76411</v>
-      </c>
-      <c r="N3" t="n">
-        <v>70.46977</v>
-      </c>
-      <c r="O3" t="n">
-        <v>188.74406</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.27388</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.17624</v>
-      </c>
-      <c r="R3" t="n">
-        <v>132.96762</v>
-      </c>
-      <c r="S3" t="n">
-        <v>23.27101</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>65.81391000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.54819</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.9664</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.42701</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>133.68638</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1308.25873</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>315.33666</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>105.42392</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19.2541</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.00549</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>161.66226</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.60453</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>106.11618</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>178.48326</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>144.4429</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.99079</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>76.67068</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>68.66641</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>52.85806</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>42.87191</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.08276</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>99.67413000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>276.95726</v>
-      </c>
-      <c r="D4" t="n">
-        <v>124.92738</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>74.19571000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>256.53618</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.18522</v>
-      </c>
-      <c r="I4" t="n">
-        <v>109.72836</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67.05861</v>
-      </c>
-      <c r="K4" t="n">
-        <v>198.63262</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5114.66501</v>
-      </c>
-      <c r="M4" t="n">
-        <v>31.1367</v>
-      </c>
-      <c r="N4" t="n">
-        <v>83.37356</v>
-      </c>
-      <c r="O4" t="n">
-        <v>216.24667</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42.34955</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.31908</v>
-      </c>
-      <c r="R4" t="n">
-        <v>152.59666</v>
-      </c>
-      <c r="S4" t="n">
-        <v>23.90602</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>69.71611</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.27337</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.36987</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.75317</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>152.03947</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1577.83151</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>380.24616</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>141.02695</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>22.38853</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.12287</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>182.31625</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.65105</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>121.10395</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>223.48971</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>177.20433</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.89848</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>88.80155999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>88.29124</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>53.01185</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>42.9824</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.09057</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
